--- a/content/rigel96/CAD resources/Rigel spreadsheet.xlsx
+++ b/content/rigel96/CAD resources/Rigel spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicholasWilson\Source\keyboards\02-keyopatra-project\CAD resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicholasWilson\Source\keyboards\content\rigel96\CAD resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CB4B26-D37B-460E-96EF-4C743ADC0F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727F1C7-620A-4273-9D44-814693B3D175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5510" windowWidth="28800" windowHeight="15370" activeTab="3" xr2:uid="{32EE4ECE-299D-4BED-919A-5106D64CC162}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" xr2:uid="{32EE4ECE-299D-4BED-919A-5106D64CC162}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
   <si>
     <t>Thoughts on metals for keyboard plate</t>
   </si>
@@ -362,6 +362,27 @@
   </si>
   <si>
     <t>Radius:</t>
+  </si>
+  <si>
+    <t>Quality Planed Timber Merchants in the UK | Timbersource</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Beech</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>Meranti</t>
+  </si>
+  <si>
+    <t>American Oak</t>
+  </si>
+  <si>
+    <t>Tulipwood</t>
   </si>
 </sst>
 </file>
@@ -432,11 +453,11 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -799,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7E0C16-8865-409D-A480-46129CE2CEEA}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,12 +835,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -931,10 +952,10 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
@@ -944,19 +965,72 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -964,11 +1038,14 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B2:E2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" display="https://www.timbersource.co.uk/planed-timber" xr:uid="{160D0327-ADA8-4F28-8A21-FAFDFB24B7D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1248,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15110F8F-67DA-46BD-B8B2-C9615236E7CE}">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1329,14 +1406,14 @@
       <c r="E12" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f>15*PI()/180</f>
         <v>0.26179938779914941</v>
       </c>
       <c r="G12" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f>C4/2/SIN(F12/2)</f>
         <v>72.973859407022218</v>
       </c>

--- a/content/rigel96/CAD resources/Rigel spreadsheet.xlsx
+++ b/content/rigel96/CAD resources/Rigel spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicholasWilson\Source\keyboards\content\rigel96\CAD resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727F1C7-620A-4273-9D44-814693B3D175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5EF7DB-A8FE-43EF-8A2B-7D02D0030304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" xr2:uid="{32EE4ECE-299D-4BED-919A-5106D64CC162}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{32EE4ECE-299D-4BED-919A-5106D64CC162}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
   <si>
     <t>Thoughts on metals for keyboard plate</t>
   </si>
@@ -384,13 +384,89 @@
   <si>
     <t>Tulipwood</t>
   </si>
+  <si>
+    <t>1.5mm sheet materials</t>
+  </si>
+  <si>
+    <t>Steel 1.0330 / DC01</t>
+  </si>
+  <si>
+    <t>Steel-1.0330-DC01-6112.pdf (xometry.eu)</t>
+  </si>
+  <si>
+    <t>Stainless Steel 304 / 1.4301 / X5CrNi18.10</t>
+  </si>
+  <si>
+    <t>Stainless-steel-1.4301.pdf (xometry.eu)</t>
+  </si>
+  <si>
+    <t>Aluminium 5083 / 3.3547 / Al-Mg4.5Mn</t>
+  </si>
+  <si>
+    <t>Aluminium-3.3547.pdf (xometry.eu)</t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>gatepost</t>
+  </si>
+  <si>
+    <t>metal corners</t>
+  </si>
+  <si>
+    <t>existing plywood</t>
+  </si>
+  <si>
+    <t>bottle jack</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Screwfix</t>
+  </si>
+  <si>
+    <t>in-stock</t>
+  </si>
+  <si>
+    <t>Xometry</t>
+  </si>
+  <si>
+    <t>Pressing dies</t>
+  </si>
+  <si>
+    <t>metal rod, 4mm and 6mm</t>
+  </si>
+  <si>
+    <t>Mackays</t>
+  </si>
+  <si>
+    <t>threaded socket / insert nut</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>:( :( router</t>
+  </si>
+  <si>
+    <t>drill press?</t>
+  </si>
+  <si>
+    <t>Silverline - how bad can it be?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="General&quot; rad&quot;"/>
     <numFmt numFmtId="165" formatCode="General&quot; mm&quot;"/>
   </numFmts>
@@ -448,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -458,12 +534,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -518,6 +599,40 @@
   <autoFilter ref="A1:A12" xr:uid="{B13EB043-D5B2-4B7C-B938-C19166A448E7}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{99C86277-EA76-456C-9334-1A286738BACD}" name="Item"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C9570EF5-B845-4564-A42E-135E33F2E1B2}" name="Table5" displayName="Table5" ref="A16:C20" totalsRowShown="0">
+  <autoFilter ref="A16:C20" xr:uid="{C9570EF5-B845-4564-A42E-135E33F2E1B2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{735D10F9-A5E4-45D4-B150-6252CF69679D}" name="Press"/>
+    <tableColumn id="2" xr3:uid="{EDCC89ED-34F8-4E4F-A97D-4BB3379873EA}" name="Where"/>
+    <tableColumn id="3" xr3:uid="{2CA91D3C-9F18-487B-860F-941B140BB6EE}" name="Cost"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1CFBC97D-F1D4-4E88-BBE1-0B6357089997}" name="Table6" displayName="Table6" ref="A22:A23" totalsRowShown="0">
+  <autoFilter ref="A22:A23" xr:uid="{1CFBC97D-F1D4-4E88-BBE1-0B6357089997}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9C214231-D5E8-44D5-9ADE-827F2303559D}" name="Plate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7E6AD89C-F0E2-4D8D-B475-FE1698194DE6}" name="Table7" displayName="Table7" ref="A25:C28" totalsRowShown="0">
+  <autoFilter ref="A25:C28" xr:uid="{7E6AD89C-F0E2-4D8D-B475-FE1698194DE6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D87F9282-BB05-4294-8C43-111EBA432E93}" name="Pressing dies"/>
+    <tableColumn id="2" xr3:uid="{4D26919D-EB06-464C-9CD5-1B08F51C8C3F}" name="Where"/>
+    <tableColumn id="3" xr3:uid="{889EB9F2-363E-402A-A124-B960FECC26FC}" name="Cost" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -820,15 +935,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7E0C16-8865-409D-A480-46129CE2CEEA}">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
@@ -1033,6 +1148,44 @@
         <v>30</v>
       </c>
     </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="7">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B15:C15"/>
@@ -1040,12 +1193,15 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1" display="https://www.timbersource.co.uk/planed-timber" xr:uid="{160D0327-ADA8-4F28-8A21-FAFDFB24B7D7}"/>
+    <hyperlink ref="C34" r:id="rId2" display="https://xometry.eu/wp-content/uploads/2022/08/Steel-1.0330-DC01-6112.pdf" xr:uid="{396C4B50-11F1-401D-B316-20AB52F7DF29}"/>
+    <hyperlink ref="C35" r:id="rId3" display="https://xometry.eu/wp-content/uploads/2021/02/Stainless-steel-1.4301.pdf" xr:uid="{00136418-F488-4482-BD9D-7A4D577B5037}"/>
+    <hyperlink ref="C36" r:id="rId4" display="https://xometry.eu/wp-content/uploads/2021/02/Aluminium-3.3547.pdf" xr:uid="{BEB0BEDB-44A0-41FF-B098-F6B35F1CEB91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
   <tableParts count="2">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1242,81 +1398,210 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8FD24A-884A-40CF-8C39-8A59E7A4384C}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
